--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H2">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9776944302049534</v>
       </c>
       <c r="Q2">
-        <v>4.178752963127777</v>
+        <v>0.8300933523277777</v>
       </c>
       <c r="R2">
-        <v>37.60877666814999</v>
+        <v>7.47084017095</v>
       </c>
       <c r="S2">
-        <v>0.469939350291491</v>
+        <v>0.1624737193340153</v>
       </c>
       <c r="T2">
-        <v>0.469939350291491</v>
+        <v>0.1624737193340153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H3">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>0.02230556979504659</v>
       </c>
       <c r="Q3">
-        <v>0.09533598944177778</v>
+        <v>0.01893813100977778</v>
       </c>
       <c r="R3">
-        <v>0.858023904976</v>
+        <v>0.170443179088</v>
       </c>
       <c r="S3">
-        <v>0.01072141218516332</v>
+        <v>0.003706750058610825</v>
       </c>
       <c r="T3">
-        <v>0.01072141218516332</v>
+        <v>0.003706750058610826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6.328443</v>
       </c>
       <c r="I4">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J4">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>17.537539452675</v>
       </c>
       <c r="S4">
-        <v>0.2191398026270045</v>
+        <v>0.3814014485175108</v>
       </c>
       <c r="T4">
-        <v>0.2191398026270045</v>
+        <v>0.3814014485175109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.328443</v>
       </c>
       <c r="I5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>0.400109480232</v>
       </c>
       <c r="S5">
-        <v>0.004999556110128095</v>
+        <v>0.008701467827791359</v>
       </c>
       <c r="T5">
-        <v>0.004999556110128095</v>
+        <v>0.008701467827791361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.778265</v>
+        <v>2.399397</v>
       </c>
       <c r="H6">
-        <v>8.334795</v>
+        <v>7.198191</v>
       </c>
       <c r="I6">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="J6">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,16 +812,16 @@
         <v>0.9776944302049534</v>
       </c>
       <c r="Q6">
-        <v>2.566399141541666</v>
+        <v>2.216422983775</v>
       </c>
       <c r="R6">
-        <v>23.097592273875</v>
+        <v>19.947806853975</v>
       </c>
       <c r="S6">
-        <v>0.2886152772864579</v>
+        <v>0.4338192623534272</v>
       </c>
       <c r="T6">
-        <v>0.2886152772864579</v>
+        <v>0.4338192623534272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.778265</v>
+        <v>2.399397</v>
       </c>
       <c r="H7">
-        <v>8.334795</v>
+        <v>7.198191</v>
       </c>
       <c r="I7">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="J7">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,16 +874,16 @@
         <v>0.02230556979504659</v>
       </c>
       <c r="Q7">
-        <v>0.05855100878666666</v>
+        <v>0.05056649197600001</v>
       </c>
       <c r="R7">
-        <v>0.5269590790799999</v>
+        <v>0.455098427784</v>
       </c>
       <c r="S7">
-        <v>0.006584601499755168</v>
+        <v>0.009897351908644403</v>
       </c>
       <c r="T7">
-        <v>0.006584601499755168</v>
+        <v>0.009897351908644403</v>
       </c>
     </row>
   </sheetData>
